--- a/Temp_Hum.xlsx
+++ b/Temp_Hum.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kmutnbacth-my.sharepoint.com/personal/s6513031620024_kmutnb_ac_th/Documents/A-ชันโรงแดชบอร์ด/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC1048F4795B7A1E5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66FC44B4-32D5-4E85-B716-DFB5BD19EAB2}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_F25DC773A252ABDACC1048F4795B7A1E5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E426AFA-7E42-4460-9494-6A97E3F7118B}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="0" windowWidth="13875" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hive_Inside" sheetId="1" r:id="rId1"/>
     <sheet name="pavilion_outside" sheetId="2" r:id="rId2"/>
-    <sheet name="2Hive_Inside" sheetId="3" r:id="rId3"/>
+    <sheet name="2Hive_Inside" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,13 +124,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
@@ -5402,13 +5395,13 @@
       <c r="A356" s="1">
         <v>45</v>
       </c>
-      <c r="B356" s="8">
+      <c r="B356" s="3">
         <v>45907</v>
       </c>
-      <c r="C356" s="9">
+      <c r="C356" s="1">
         <v>28.1</v>
       </c>
-      <c r="D356" s="9">
+      <c r="D356" s="1">
         <v>86</v>
       </c>
     </row>
@@ -5416,13 +5409,13 @@
       <c r="A357" s="1">
         <v>45</v>
       </c>
-      <c r="B357" s="8">
+      <c r="B357" s="3">
         <v>45908</v>
       </c>
-      <c r="C357" s="9">
+      <c r="C357" s="1">
         <v>26.6</v>
       </c>
-      <c r="D357" s="9">
+      <c r="D357" s="1">
         <v>86</v>
       </c>
     </row>
@@ -5430,13 +5423,13 @@
       <c r="A358" s="1">
         <v>45</v>
       </c>
-      <c r="B358" s="8">
+      <c r="B358" s="3">
         <v>45909</v>
       </c>
-      <c r="C358" s="9">
+      <c r="C358" s="1">
         <v>26</v>
       </c>
-      <c r="D358" s="9">
+      <c r="D358" s="1">
         <v>87</v>
       </c>
     </row>
@@ -5444,13 +5437,13 @@
       <c r="A359" s="1">
         <v>45</v>
       </c>
-      <c r="B359" s="8">
+      <c r="B359" s="3">
         <v>45910</v>
       </c>
-      <c r="C359" s="9">
+      <c r="C359" s="1">
         <v>27.3</v>
       </c>
-      <c r="D359" s="9">
+      <c r="D359" s="1">
         <v>87</v>
       </c>
     </row>
@@ -5458,13 +5451,13 @@
       <c r="A360" s="1">
         <v>45</v>
       </c>
-      <c r="B360" s="8">
+      <c r="B360" s="3">
         <v>45911</v>
       </c>
-      <c r="C360" s="9">
+      <c r="C360" s="1">
         <v>29.1</v>
       </c>
-      <c r="D360" s="9">
+      <c r="D360" s="1">
         <v>87</v>
       </c>
     </row>
@@ -5472,13 +5465,13 @@
       <c r="A361" s="1">
         <v>45</v>
       </c>
-      <c r="B361" s="8">
+      <c r="B361" s="3">
         <v>45912</v>
       </c>
-      <c r="C361" s="9">
+      <c r="C361" s="1">
         <v>28.6</v>
       </c>
-      <c r="D361" s="9">
+      <c r="D361" s="1">
         <v>86</v>
       </c>
     </row>
@@ -5486,13 +5479,13 @@
       <c r="A362" s="1">
         <v>45</v>
       </c>
-      <c r="B362" s="8">
+      <c r="B362" s="3">
         <v>45913</v>
       </c>
-      <c r="C362" s="9">
+      <c r="C362" s="1">
         <v>28.5</v>
       </c>
-      <c r="D362" s="9">
+      <c r="D362" s="1">
         <v>96</v>
       </c>
     </row>
@@ -5500,13 +5493,13 @@
       <c r="A363" s="1">
         <v>45</v>
       </c>
-      <c r="B363" s="8">
+      <c r="B363" s="3">
         <v>45914</v>
       </c>
-      <c r="C363" s="9">
+      <c r="C363" s="1">
         <v>26.8</v>
       </c>
-      <c r="D363" s="9">
+      <c r="D363" s="1">
         <v>86</v>
       </c>
     </row>
@@ -5514,13 +5507,13 @@
       <c r="A364" s="1">
         <v>45</v>
       </c>
-      <c r="B364" s="8">
+      <c r="B364" s="3">
         <v>45915</v>
       </c>
-      <c r="C364" s="9">
+      <c r="C364" s="1">
         <v>27.7</v>
       </c>
-      <c r="D364" s="9">
+      <c r="D364" s="1">
         <v>86</v>
       </c>
     </row>
@@ -5528,13 +5521,13 @@
       <c r="A365" s="1">
         <v>45</v>
       </c>
-      <c r="B365" s="8">
+      <c r="B365" s="3">
         <v>45916</v>
       </c>
-      <c r="C365" s="9">
+      <c r="C365" s="1">
         <v>26.7</v>
       </c>
-      <c r="D365" s="9">
+      <c r="D365" s="1">
         <v>86</v>
       </c>
     </row>
@@ -5548,7 +5541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5859DFA2-B39F-4B66-9DBC-FF457DB4FD2D}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -5672,16 +5665,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="5">
         <v>45826</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="1">
         <v>29.8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="1">
         <v>76.3</v>
       </c>
     </row>
@@ -6969,7 +6962,7 @@
   <dimension ref="A1:D437"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A2:XFD18"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
